--- a/Data/US GDP_Change by State.xlsx
+++ b/Data/US GDP_Change by State.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipnunoo/Project2_Economic_Disaster/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ABC1FDD5-C8C1-1F4E-A242-A75F33D1A706}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE01A77-3AA4-724A-8AF5-242E9611799B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="25520" windowHeight="15780" activeTab="2"/>
+    <workbookView xWindow="2060" yWindow="1300" windowWidth="25520" windowHeight="15780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="13" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
   <si>
     <t>GeoName</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>2016:Q1</t>
   </si>
   <si>
@@ -233,11 +230,17 @@
   <si>
     <t>Sum of United States *</t>
   </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Sum of Georgia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -265,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -303,21 +306,6 @@
       <left style="thin">
         <color rgb="FF999999"/>
       </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -338,7 +326,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF999999"/>
+        <color indexed="65"/>
       </left>
       <right style="thin">
         <color rgb="FF999999"/>
@@ -350,9 +338,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color rgb="FF999999"/>
-      </left>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF999999"/>
       </right>
@@ -360,31 +357,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,36 +434,6 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -676,6 +660,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -692,7 +732,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Sum of United States *</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -805,6 +845,131 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3B19-9E49-988B-BCDD6F20325B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Georgia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2016:Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016:Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016:Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016:Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017:Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017:Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017:Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017:Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018:Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018:Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018:Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018:Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019:Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$3:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A78-0F42-995F-E1B6CA40ADAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1574,16 +1739,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1612,7 +1777,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Philip Nunoo" refreshedDate="43701.494312499999" createdVersion="1" refreshedVersion="6" recordCount="13" upgradeOnRefresh="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Philip Nunoo" refreshedDate="43701.494312499999" createdVersion="1" refreshedVersion="6" recordCount="13" upgradeOnRefresh="1" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:BA14" sheet="RawData"/>
   </cacheSource>
@@ -2532,8 +2697,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
-  <location ref="A1:B16" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+  <location ref="A1:C16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="53">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
       <items count="14">
@@ -2579,7 +2744,7 @@
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -2668,13 +2833,22 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Sum of United States *" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Georgia" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0"/>
     </chartFormat>
@@ -2683,6 +2857,15 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -2993,7 +3176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3004,95 +3187,95 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="9.83203125" style="11" customWidth="1"/>
+    <col min="2" max="14" width="9.83203125" style="6" customWidth="1"/>
     <col min="15" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="7">
         <v>1.2</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="7">
         <v>3.5</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="7">
         <v>3.9</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="7">
         <v>3.9</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="7">
         <v>4.2</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="7">
         <v>4.8</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="7">
         <v>4.3</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="7">
         <v>7.6</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="7">
         <v>3.8</v>
       </c>
     </row>
@@ -3100,43 +3283,43 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="7">
         <v>-1</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <v>5.4</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="7">
         <v>0.3</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="7">
         <v>4.5</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="7">
         <v>5.9</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="7">
         <v>2.9</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="7">
         <v>3.4</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="7">
         <v>6.6</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="7">
         <v>3.4</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="7">
         <v>5.7</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="7">
         <v>3.5</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="7">
         <v>3.6</v>
       </c>
     </row>
@@ -3144,43 +3327,43 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="7">
         <v>-9</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>7.1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="7">
         <v>1.5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <v>6.8</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="7">
         <v>5.2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="7">
         <v>1.8</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="7">
         <v>5</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="7">
         <v>6.7</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="7">
         <v>7</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="7">
         <v>6.9</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="7">
         <v>1.6</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="7">
         <v>-1.9</v>
       </c>
     </row>
@@ -3188,43 +3371,43 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="7">
         <v>2.6</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="7">
         <v>6.5</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <v>1.6</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="7">
         <v>6.4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="7">
         <v>2.1</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="7">
         <v>3.5</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="7">
         <v>7.6</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="7">
         <v>5.4</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="7">
         <v>5.6</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="7">
         <v>5.4</v>
       </c>
     </row>
@@ -3232,43 +3415,43 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="7">
         <v>-2.9</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="7">
         <v>-0.8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>6.5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="7">
         <v>2.4</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <v>3.7</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="7">
         <v>0.1</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="7">
         <v>3.3</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="7">
         <v>5.8</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="7">
         <v>1.8</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="7">
         <v>4.2</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="7">
         <v>3.1</v>
       </c>
     </row>
@@ -3276,43 +3459,43 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>3.5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="7">
         <v>4.8</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <v>3.7</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="7">
         <v>5.9</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="7">
         <v>7.5</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="7">
         <v>7.8</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="7">
         <v>2.7</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <v>2.6</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="7">
         <v>4.3</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="7">
         <v>4.5</v>
       </c>
     </row>
@@ -3320,43 +3503,43 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="7">
         <v>-2.1</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="7">
         <v>7.2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <v>5.6</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="7">
         <v>3.6</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <v>3.9</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="7">
         <v>7.7</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="7">
         <v>7</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="7">
         <v>3.4</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="7">
         <v>9.5</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="7">
         <v>6.2</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3364,43 +3547,43 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="7">
         <v>0.9</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>1.8</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <v>1.4</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="7">
         <v>-2.9</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="7">
         <v>3.9</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="7">
         <v>0.3</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="7">
         <v>3.9</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="7">
         <v>-0.6</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="7">
         <v>10.9</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="7">
         <v>4</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="7">
         <v>3.4</v>
       </c>
     </row>
@@ -3408,43 +3591,43 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="7">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>7.7</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="7">
         <v>3.8</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <v>5.3</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="7">
         <v>0.7</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <v>-3.7</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="7">
         <v>10.4</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="7">
         <v>-1.3</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="7">
         <v>2.6</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="7">
         <v>5.2</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="7">
         <v>11.1</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="7">
         <v>2.4</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="7">
         <v>2.9</v>
       </c>
     </row>
@@ -3452,43 +3635,43 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="7">
         <v>7.6</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="7">
         <v>1.3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="7">
         <v>5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="7">
         <v>5.2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="7">
         <v>1.6</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="7">
         <v>-2.4</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="7">
         <v>6</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="7">
         <v>3.2</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="7">
         <v>8.1</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="7">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -3496,43 +3679,43 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>7.4</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="7">
         <v>6.8</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <v>3.3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="7">
         <v>3.7</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <v>2.6</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="7">
         <v>5.2</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="7">
         <v>6.2</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="7">
         <v>6.4</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="7">
         <v>4.5</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="7">
         <v>9</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="7">
         <v>5.2</v>
       </c>
     </row>
@@ -3540,43 +3723,43 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="7">
         <v>6.9</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="7">
         <v>4.3</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>4.8</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="7">
         <v>2.6</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="7">
         <v>5.6</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="7">
         <v>5.4</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="7">
         <v>1</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="7">
         <v>6.1</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="7">
         <v>8.9</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="7">
         <v>4.5</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="7">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -3584,43 +3767,43 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="7">
         <v>3.2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <v>3.9</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>4.2</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>5.8</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <v>1.9</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="7">
         <v>3.6</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="7">
         <v>2.9</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="7">
         <v>2.5</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="7">
         <v>3.5</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="7">
         <v>4.2</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="7">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -3628,43 +3811,43 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="7">
         <v>7.2</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="7">
         <v>3.3</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
         <v>0.3</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="7">
         <v>8.4</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="7">
         <v>3.8</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="7">
         <v>9</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="7">
         <v>9.1</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="7">
         <v>5.7</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="7">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -3672,43 +3855,43 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="7">
         <v>-0.9</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <v>3.8</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="7">
         <v>0.5</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="7">
         <v>5.2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="7">
         <v>-0.4</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="7">
         <v>2.8</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="7">
         <v>5.6</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="7">
         <v>6.1</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="7">
         <v>6.6</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="7">
         <v>3.8</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="7">
         <v>3.8</v>
       </c>
     </row>
@@ -3716,43 +3899,43 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="7">
         <v>-0.1</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="7">
         <v>6.7</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="7">
         <v>4.8</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="7">
         <v>5.3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="7">
         <v>3</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="7">
         <v>3.5</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="7">
         <v>6.6</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="7">
         <v>5.3</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="7">
         <v>3.9</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="7">
         <v>3.5</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="7">
         <v>3.7</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="7">
         <v>3.3</v>
       </c>
     </row>
@@ -3760,43 +3943,43 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="7">
         <v>-3.8</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="7">
         <v>3.6</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="7">
         <v>4.8</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="7">
         <v>1.7</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="7">
         <v>-1.6</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="7">
         <v>-2.5</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="7">
         <v>3.5</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="7">
         <v>10.9</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="7">
         <v>0.6</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="7">
         <v>3.1</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="7">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -3804,43 +3987,43 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="7">
         <v>-3.1</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="7">
         <v>10</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="7">
         <v>2.6</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="7">
         <v>3.6</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="7">
         <v>3</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="7">
         <v>4.3</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="7">
         <v>2.4</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="7">
         <v>9.4</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="7">
         <v>2.4</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="7">
         <v>3.5</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3848,43 +4031,43 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="7">
         <v>-5.2</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="7">
         <v>7.5</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="7">
         <v>4.5</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="7">
         <v>2.8</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="7">
         <v>0.8</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="7">
         <v>2.9</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="7">
         <v>3.2</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="7">
         <v>5.8</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="7">
         <v>-0.4</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="7">
         <v>8.4</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="7">
         <v>4.3</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="7">
         <v>3.2</v>
       </c>
     </row>
@@ -3892,43 +4075,43 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="7">
         <v>-7.8</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="7">
         <v>3.7</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="7">
         <v>-0.2</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="7">
         <v>3.9</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="7">
         <v>8.1</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="7">
         <v>3.1</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="7">
         <v>4.3</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="7">
         <v>5.7</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="7">
         <v>2.4</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="7">
         <v>2.9</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="7">
         <v>1.5</v>
       </c>
     </row>
@@ -3936,43 +4119,43 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="7">
         <v>-0.5</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="7">
         <v>0.4</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="7">
         <v>4.7</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="7">
         <v>3.5</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="7">
         <v>1.5</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="7">
         <v>5.8</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="7">
         <v>2.8</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="7">
         <v>5.9</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="7">
         <v>4.5</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="7">
         <v>3.4</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="7">
         <v>4.2</v>
       </c>
     </row>
@@ -3980,43 +4163,43 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="7">
         <v>3.9</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="7">
         <v>7.8</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="7">
         <v>3.7</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="7">
         <v>5.5</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="7">
         <v>3.2</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="7">
         <v>4.7</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="7">
         <v>6.4</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="7">
         <v>0.8</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="7">
         <v>3.7</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="7">
         <v>4</v>
       </c>
     </row>
@@ -4024,43 +4207,43 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="7">
         <v>0.2</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="7">
         <v>5.7</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="7">
         <v>5.6</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="7">
         <v>1</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="7">
         <v>4.7</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="7">
         <v>5.5</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="7">
         <v>2.9</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="7">
         <v>6.8</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="7">
         <v>5.2</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="7">
         <v>3.4</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="7">
         <v>4</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="7">
         <v>4.3</v>
       </c>
     </row>
@@ -4068,43 +4251,43 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="7">
         <v>-0.6</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="7">
         <v>1.5</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="7">
         <v>5.7</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="7">
         <v>0.2</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="7">
         <v>3.5</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="7">
         <v>3.5</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="7">
         <v>4.5</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="7">
         <v>3.4</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="7">
         <v>6.5</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="7">
         <v>4.7</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="7">
         <v>4.3</v>
       </c>
     </row>
@@ -4112,43 +4295,43 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="7">
         <v>-3.3</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="7">
         <v>7.8</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="7">
         <v>2.9</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="7">
         <v>3.3</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="7">
         <v>-0.2</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="7">
         <v>5.6</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="7">
         <v>11.3</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="7">
         <v>3.9</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="7">
         <v>3.5</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="7">
         <v>3.4</v>
       </c>
     </row>
@@ -4156,43 +4339,43 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="7">
         <v>0.9</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="7">
         <v>-0.2</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="7">
         <v>3.8</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="7">
         <v>5.2</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="7">
         <v>0.4</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="7">
         <v>2.8</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="7">
         <v>3.7</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="7">
         <v>6.2</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="7">
         <v>3.6</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="7">
         <v>3.3</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="7">
         <v>2.9</v>
       </c>
     </row>
@@ -4200,43 +4383,43 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="7">
         <v>0.2</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="7">
         <v>1.6</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="7">
         <v>-0.4</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="7">
         <v>3.7</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="7">
         <v>0.9</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="7">
         <v>6.4</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="7">
         <v>3</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="7">
         <v>2.8</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="7">
         <v>3.1</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="7">
         <v>3</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="7">
         <v>4.3</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="7">
         <v>3.4</v>
       </c>
     </row>
@@ -4244,43 +4427,43 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="7">
         <v>-2.5</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="7">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="7">
         <v>0.7</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="7">
         <v>6.9</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="7">
         <v>2.5</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="7">
         <v>5.5</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="7">
         <v>3.3</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="7">
         <v>7.1</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="7">
         <v>3.1</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="7">
         <v>3</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="7">
         <v>3.3</v>
       </c>
     </row>
@@ -4288,43 +4471,43 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="7">
         <v>-3</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="7">
         <v>5.7</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="7">
         <v>-0.3</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="7">
         <v>1.2</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="7">
         <v>0.4</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="7">
         <v>6.2</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="7">
         <v>1.2</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="7">
         <v>3.7</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="7">
         <v>2.8</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="7">
         <v>-0.4</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="7">
         <v>5.5</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="7">
         <v>4</v>
       </c>
     </row>
@@ -4332,43 +4515,43 @@
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="7">
         <v>0.1</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="7">
         <v>4.2</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="7">
         <v>12.4</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="7">
         <v>-0.7</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="7">
         <v>5.2</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="7">
         <v>2.9</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="7">
         <v>6.2</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="7">
         <v>9.5</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="7">
         <v>5.2</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="7">
         <v>5.8</v>
       </c>
     </row>
@@ -4376,43 +4559,43 @@
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="7">
         <v>-1.8</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="7">
         <v>4.8</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="7">
         <v>3.1</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="7">
         <v>-0.9</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="7">
         <v>7.1</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="7">
         <v>1.3</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="7">
         <v>-1.7</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="7">
         <v>8.4</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="7">
         <v>5.7</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="7">
         <v>4</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="7">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -4420,43 +4603,43 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="7">
         <v>3.8</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="7">
         <v>1.5</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="7">
         <v>2.4</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="7">
         <v>5.8</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="7">
         <v>1.2</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="7">
         <v>5.4</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="7">
         <v>5.9</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="7">
         <v>3.4</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="7">
         <v>3.3</v>
       </c>
     </row>
@@ -4464,43 +4647,43 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="7">
         <v>-5.3</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="7">
         <v>7.6</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="7">
         <v>4.7</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="7">
         <v>3.1</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="7">
         <v>0.6</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="7">
         <v>5.7</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="7">
         <v>4</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="7">
         <v>8.4</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="7">
         <v>8.6</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="7">
         <v>2.6</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="7">
         <v>1.8</v>
       </c>
     </row>
@@ -4508,43 +4691,43 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="7">
         <v>12.9</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="7">
         <v>5</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="7">
         <v>-0.6</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="7">
         <v>1.8</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="7">
         <v>7.9</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="7">
         <v>1</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="7">
         <v>5.8</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="7">
         <v>3.3</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="7">
         <v>4.8</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="7">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -4552,43 +4735,43 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="7">
         <v>3.4</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="7">
         <v>3.3</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="7">
         <v>3.1</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="7">
         <v>5.9</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="7">
         <v>2.7</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="7">
         <v>3.4</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="7">
         <v>3.5</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="7">
         <v>5.5</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="7">
         <v>3.3</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="7">
         <v>11.9</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="7">
         <v>1.7</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="7">
         <v>3.2</v>
       </c>
     </row>
@@ -4596,43 +4779,43 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="7">
         <v>-16.899999999999999</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="7">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="7">
         <v>3.5</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="7">
         <v>1.6</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="7">
         <v>-3.6</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="7">
         <v>10.9</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="7">
         <v>-3</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="7">
         <v>5.3</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="7">
         <v>5.7</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="7">
         <v>14.1</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="7">
         <v>5.3</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="7">
         <v>1.4</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="7">
         <v>-0.4</v>
       </c>
     </row>
@@ -4640,43 +4823,43 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="7">
         <v>-3.7</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="7">
         <v>6.6</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="7">
         <v>4.2</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="7">
         <v>1.9</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="7">
         <v>4</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="7">
         <v>5.7</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="7">
         <v>3.3</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="7">
         <v>2.7</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="7">
         <v>7.4</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="7">
         <v>7</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="7">
         <v>3.4</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="7">
         <v>3.3</v>
       </c>
     </row>
@@ -4684,43 +4867,43 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="7">
         <v>-13.2</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="7">
         <v>6</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="7">
         <v>-0.5</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="7">
         <v>2.9</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="7">
         <v>7.7</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="7">
         <v>0.9</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="7">
         <v>8.4</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="7">
         <v>7.5</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="7">
         <v>11.1</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="7">
         <v>3.9</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="7">
         <v>2.7</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="7">
         <v>-1.4</v>
       </c>
     </row>
@@ -4728,43 +4911,43 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="7">
         <v>10.1</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="7">
         <v>4.7</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="7">
         <v>1.3</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="7">
         <v>6.4</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="7">
         <v>6.8</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="7">
         <v>4.3</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="7">
         <v>7.4</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="7">
         <v>4.2</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="7">
         <v>6.5</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="7">
         <v>5.9</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="7">
         <v>4</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="7">
         <v>5.2</v>
       </c>
     </row>
@@ -4772,43 +4955,43 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="7">
         <v>-2</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="7">
         <v>4.7</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="7">
         <v>3.4</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="7">
         <v>3.7</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="7">
         <v>6.4</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="7">
         <v>3.3</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="7">
         <v>3.2</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="7">
         <v>7.9</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="7">
         <v>4.2</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4816,43 +4999,43 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="7">
         <v>-6</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="7">
         <v>6.7</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="7">
         <v>3.7</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="7">
         <v>3.3</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="7">
         <v>-2.8</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="7">
         <v>7.4</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="7">
         <v>3.4</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="7">
         <v>1.8</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="7">
         <v>3.6</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="7">
         <v>6.3</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="7">
         <v>-4</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="7">
         <v>3.6</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="7">
         <v>3.9</v>
       </c>
     </row>
@@ -4860,43 +5043,43 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="7">
         <v>6.1</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="7">
         <v>3.1</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="7">
         <v>6.6</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="7">
         <v>5.4</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="7">
         <v>2.5</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="7">
         <v>2.7</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="7">
         <v>3.1</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="7">
         <v>3</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="7">
         <v>5.9</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="7">
         <v>4.8</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="7">
         <v>4.3</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="7">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4904,43 +5087,43 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="7">
         <v>-13.9</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="7">
         <v>8</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="7">
         <v>8.6</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="7">
         <v>3.1</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="7">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="7">
         <v>3</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="7">
         <v>0.4</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="7">
         <v>-1</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="7">
         <v>7.6</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44" s="7">
         <v>6</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="7">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4948,43 +5131,43 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="7">
         <v>1.7</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="7">
         <v>5</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="7">
         <v>2.5</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="7">
         <v>3.7</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="7">
         <v>4.7</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="7">
         <v>4.3</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="7">
         <v>1.9</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="7">
         <v>10.4</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="7">
         <v>6.6</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="7">
         <v>4.2</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="7">
         <v>3.7</v>
       </c>
     </row>
@@ -4992,43 +5175,43 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="7">
         <v>-7.2</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="7">
         <v>6.6</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="7">
         <v>4</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="7">
         <v>5</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="7">
         <v>6.3</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="7">
         <v>5.9</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="7">
         <v>6.1</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="7">
         <v>7.5</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="7">
         <v>7.1</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="7">
         <v>9.9</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="7">
         <v>6.3</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="7">
         <v>5.8</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="7">
         <v>2.1</v>
       </c>
     </row>
@@ -5036,43 +5219,43 @@
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="7">
         <v>5.3</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="7">
         <v>6.1</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="7">
         <v>7</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="7">
         <v>5.8</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="7">
         <v>1.7</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="7">
         <v>4.2</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="7">
         <v>5.9</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="7">
         <v>8.5</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="7">
         <v>7.6</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="7">
         <v>6.7</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="7">
         <v>3.9</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="7">
         <v>5.2</v>
       </c>
     </row>
@@ -5080,43 +5263,43 @@
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="7">
         <v>3.5</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="7">
         <v>3.6</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="7">
         <v>3.1</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="7">
         <v>2.1</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="7">
         <v>4.8</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="7">
         <v>2.1</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="7">
         <v>3.1</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="7">
         <v>2.5</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="7">
         <v>3.1</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="7">
         <v>7</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="7">
         <v>0.4</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="7">
         <v>4.3</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48" s="7">
         <v>4.3</v>
       </c>
     </row>
@@ -5124,43 +5307,43 @@
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="7">
         <v>-3.3</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="7">
         <v>5.3</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="7">
         <v>3.3</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="7">
         <v>5.7</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="7">
         <v>0.4</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="7">
         <v>3.4</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="7">
         <v>4.8</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="7">
         <v>3.5</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="7">
         <v>5.9</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="7">
         <v>6.3</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="7">
         <v>3.9</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N49" s="7">
         <v>4.2</v>
       </c>
     </row>
@@ -5168,43 +5351,43 @@
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="7">
         <v>7.8</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="7">
         <v>3.1</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="7">
         <v>3.7</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="7">
         <v>8.4</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="7">
         <v>5.2</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="7">
         <v>7</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="7">
         <v>5.8</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="7">
         <v>6.9</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="7">
         <v>10.5</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L50" s="7">
         <v>6.8</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M50" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N50" s="7">
         <v>5.2</v>
       </c>
     </row>
@@ -5212,43 +5395,43 @@
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="7">
         <v>-7.3</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="7">
         <v>5.9</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="7">
         <v>3.7</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="7">
         <v>2.8</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="7">
         <v>-0.6</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="7">
         <v>6.4</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="7">
         <v>2.7</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="7">
         <v>11.4</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L51" s="7">
         <v>12.5</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M51" s="7">
         <v>0.2</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N51" s="7">
         <v>1.6</v>
       </c>
     </row>
@@ -5256,43 +5439,43 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="7">
         <v>0</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="7">
         <v>5</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="7">
         <v>3.7</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="7">
         <v>2.9</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="7">
         <v>6.2</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="7">
         <v>6.6</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="7">
         <v>5.3</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="7">
         <v>3.8</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M52" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N52" s="7">
         <v>3.5</v>
       </c>
     </row>
@@ -5300,112 +5483,116 @@
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="7">
         <v>-10.7</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="7">
         <v>-0.9</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="7">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="7">
         <v>10.6</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="7">
         <v>-1.3</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="7">
         <v>10</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="7">
         <v>0.7</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="7">
         <v>7.8</v>
       </c>
-      <c r="L53" s="12">
+      <c r="L53" s="7">
         <v>6.6</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M53" s="7">
         <v>0.4</v>
       </c>
-      <c r="N53" s="12">
+      <c r="N53" s="7">
         <v>-4.5999999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="E1"/>
     <mergeCell ref="A57:N57"/>
     <mergeCell ref="L1"/>
     <mergeCell ref="M1"/>
@@ -5420,10 +5607,6 @@
     <mergeCell ref="J1"/>
     <mergeCell ref="K1"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5432,8 +5615,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
@@ -5441,135 +5624,181 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="B3" s="10">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="11">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C4" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B5" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="C7" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="C9" s="13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="12">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="13">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="13">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="13">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="13">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="13">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="C10" s="13">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="13">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="12">
+        <v>7.6</v>
+      </c>
+      <c r="C12" s="13">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="13">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C13" s="13">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="C15" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="14">
         <v>56.4</v>
+      </c>
+      <c r="C16" s="15">
+        <v>64.100000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -5579,11 +5808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5751,2094 +5980,2094 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="12">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7">
         <v>1.2</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="7">
         <v>-1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="7">
         <v>-9</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="7">
         <v>2.6</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="7">
         <v>-2.9</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="7">
         <v>6</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="7">
         <v>-2.1</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="7">
         <v>0.9</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="7">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="7">
         <v>7.6</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="7">
         <v>6.9</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="7">
         <v>3.2</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="7">
         <v>-0.9</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="7">
         <v>-0.1</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="7">
         <v>-3.8</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="7">
         <v>-3.1</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="7">
         <v>-5.2</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="7">
         <v>-7.8</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="7">
         <v>-0.5</v>
       </c>
-      <c r="W2" s="12">
+      <c r="W2" s="7">
         <v>3.9</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="7">
         <v>0.2</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="7">
         <v>-0.6</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="7">
         <v>-3.3</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="7">
         <v>0.9</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AB2" s="7">
         <v>0.2</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AC2" s="7">
         <v>-2.5</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AD2" s="7">
         <v>-3</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AE2" s="7">
         <v>0.1</v>
       </c>
-      <c r="AF2" s="12">
+      <c r="AF2" s="7">
         <v>-1.8</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AG2" s="7">
         <v>3.8</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AH2" s="7">
         <v>-5.3</v>
       </c>
-      <c r="AI2" s="12">
+      <c r="AI2" s="7">
         <v>12.9</v>
       </c>
-      <c r="AJ2" s="12">
+      <c r="AJ2" s="7">
         <v>3.4</v>
       </c>
-      <c r="AK2" s="12">
+      <c r="AK2" s="7">
         <v>-16.899999999999999</v>
       </c>
-      <c r="AL2" s="12">
+      <c r="AL2" s="7">
         <v>-3.7</v>
       </c>
-      <c r="AM2" s="12">
+      <c r="AM2" s="7">
         <v>-13.2</v>
       </c>
-      <c r="AN2" s="12">
+      <c r="AN2" s="7">
         <v>10.1</v>
       </c>
-      <c r="AO2" s="12">
+      <c r="AO2" s="7">
         <v>-2</v>
       </c>
-      <c r="AP2" s="12">
+      <c r="AP2" s="7">
         <v>-6</v>
       </c>
-      <c r="AQ2" s="12">
+      <c r="AQ2" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AR2" s="12">
+      <c r="AR2" s="7">
         <v>-13.9</v>
       </c>
-      <c r="AS2" s="12">
+      <c r="AS2" s="7">
         <v>1.7</v>
       </c>
-      <c r="AT2" s="12">
+      <c r="AT2" s="7">
         <v>-7.2</v>
       </c>
-      <c r="AU2" s="12">
+      <c r="AU2" s="7">
         <v>5.3</v>
       </c>
-      <c r="AV2" s="12">
+      <c r="AV2" s="7">
         <v>3.5</v>
       </c>
-      <c r="AW2" s="12">
+      <c r="AW2" s="7">
         <v>-3.3</v>
       </c>
-      <c r="AX2" s="12">
+      <c r="AX2" s="7">
         <v>7.8</v>
       </c>
-      <c r="AY2" s="12">
+      <c r="AY2" s="7">
         <v>-7.3</v>
       </c>
-      <c r="AZ2" s="12">
+      <c r="AZ2" s="7">
         <v>0</v>
       </c>
-      <c r="BA2" s="12">
+      <c r="BA2" s="7">
         <v>-10.7</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="12">
+        <v>55</v>
+      </c>
+      <c r="B3" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <v>5.4</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="7">
         <v>7.1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="7">
         <v>5</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="7">
         <v>3.5</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="7">
         <v>1.8</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="7">
         <v>7.7</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="7">
         <v>4</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="7">
         <v>7.4</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="7">
         <v>5</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="7">
         <v>3.9</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="7">
         <v>7.2</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="7">
         <v>3.8</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="7">
         <v>6.7</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="7">
         <v>3.6</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="7">
         <v>10</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="7">
         <v>7.5</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="7">
         <v>3.7</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="7">
         <v>7.8</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="7">
         <v>5.7</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="7">
         <v>7.8</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="7">
         <v>1</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="7">
         <v>1.6</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="7">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="AD3" s="12">
+      <c r="AD3" s="7">
         <v>5.7</v>
       </c>
-      <c r="AE3" s="12">
+      <c r="AE3" s="7">
         <v>4.2</v>
       </c>
-      <c r="AF3" s="12">
+      <c r="AF3" s="7">
         <v>4.8</v>
       </c>
-      <c r="AG3" s="12">
+      <c r="AG3" s="7">
         <v>1.5</v>
       </c>
-      <c r="AH3" s="12">
+      <c r="AH3" s="7">
         <v>7.6</v>
       </c>
-      <c r="AI3" s="12">
+      <c r="AI3" s="7">
         <v>5</v>
       </c>
-      <c r="AJ3" s="12">
+      <c r="AJ3" s="7">
         <v>3.3</v>
       </c>
-      <c r="AK3" s="12">
+      <c r="AK3" s="7">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="AL3" s="12">
+      <c r="AL3" s="7">
         <v>6.6</v>
       </c>
-      <c r="AM3" s="12">
+      <c r="AM3" s="7">
         <v>6</v>
       </c>
-      <c r="AN3" s="12">
+      <c r="AN3" s="7">
         <v>4.7</v>
       </c>
-      <c r="AO3" s="12">
+      <c r="AO3" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AP3" s="12">
+      <c r="AP3" s="7">
         <v>6.7</v>
       </c>
-      <c r="AQ3" s="12">
+      <c r="AQ3" s="7">
         <v>6.1</v>
       </c>
-      <c r="AR3" s="12">
+      <c r="AR3" s="7">
         <v>8</v>
       </c>
-      <c r="AS3" s="12">
+      <c r="AS3" s="7">
         <v>5</v>
       </c>
-      <c r="AT3" s="12">
+      <c r="AT3" s="7">
         <v>6.6</v>
       </c>
-      <c r="AU3" s="12">
+      <c r="AU3" s="7">
         <v>6.1</v>
       </c>
-      <c r="AV3" s="12">
+      <c r="AV3" s="7">
         <v>3.6</v>
       </c>
-      <c r="AW3" s="12">
+      <c r="AW3" s="7">
         <v>5.3</v>
       </c>
-      <c r="AX3" s="12">
+      <c r="AX3" s="7">
         <v>3.1</v>
       </c>
-      <c r="AY3" s="12">
+      <c r="AY3" s="7">
         <v>5.9</v>
       </c>
-      <c r="AZ3" s="12">
+      <c r="AZ3" s="7">
         <v>5</v>
       </c>
-      <c r="BA3" s="12">
+      <c r="BA3" s="7">
         <v>-0.9</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="12">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7">
         <v>3.5</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>0.3</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="7">
         <v>1.5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <v>6.5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="7">
         <v>-0.8</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="7">
         <v>4.8</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="7">
         <v>7.2</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="7">
         <v>3.8</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="7">
         <v>1.3</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="7">
         <v>6.8</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="7">
         <v>4.3</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="7">
         <v>2</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="7">
         <v>3.3</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="7">
         <v>4.8</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="7">
         <v>4.8</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="7">
         <v>2.6</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="7">
         <v>4.5</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="7">
         <v>-0.2</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="7">
         <v>0.4</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="7">
         <v>3.7</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="7">
         <v>5.6</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="7">
         <v>1.5</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="7">
         <v>-0.2</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="7">
         <v>-0.4</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="7">
         <v>0.7</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AD4" s="7">
         <v>-0.3</v>
       </c>
-      <c r="AE4" s="12">
+      <c r="AE4" s="7">
         <v>12.4</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AF4" s="7">
         <v>3.1</v>
       </c>
-      <c r="AG4" s="12">
+      <c r="AG4" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AH4" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AI4" s="7">
         <v>-0.6</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AJ4" s="7">
         <v>3.1</v>
       </c>
-      <c r="AK4" s="12">
+      <c r="AK4" s="7">
         <v>3.5</v>
       </c>
-      <c r="AL4" s="12">
+      <c r="AL4" s="7">
         <v>4.2</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AM4" s="7">
         <v>-0.5</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AN4" s="7">
         <v>1.3</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AO4" s="7">
         <v>4.7</v>
       </c>
-      <c r="AP4" s="12">
+      <c r="AP4" s="7">
         <v>3.7</v>
       </c>
-      <c r="AQ4" s="12">
+      <c r="AQ4" s="7">
         <v>3.1</v>
       </c>
-      <c r="AR4" s="12">
+      <c r="AR4" s="7">
         <v>8.6</v>
       </c>
-      <c r="AS4" s="12">
+      <c r="AS4" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AT4" s="12">
+      <c r="AT4" s="7">
         <v>4</v>
       </c>
-      <c r="AU4" s="12">
+      <c r="AU4" s="7">
         <v>7</v>
       </c>
-      <c r="AV4" s="12">
+      <c r="AV4" s="7">
         <v>3.1</v>
       </c>
-      <c r="AW4" s="12">
+      <c r="AW4" s="7">
         <v>3.3</v>
       </c>
-      <c r="AX4" s="12">
+      <c r="AX4" s="7">
         <v>3.7</v>
       </c>
-      <c r="AY4" s="12">
+      <c r="AY4" s="7">
         <v>3.7</v>
       </c>
-      <c r="AZ4" s="12">
+      <c r="AZ4" s="7">
         <v>3.7</v>
       </c>
-      <c r="BA4" s="12">
+      <c r="BA4" s="7">
         <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="12">
+        <v>57</v>
+      </c>
+      <c r="B5" s="7">
         <v>3.9</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <v>4.5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="7">
         <v>6.8</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <v>1.6</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="7">
         <v>6.5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="7">
         <v>3.7</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="7">
         <v>5.6</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="7">
         <v>1.4</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="7">
         <v>5.3</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="7">
         <v>5</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="7">
         <v>3.3</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="7">
         <v>4.8</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="7">
         <v>4.2</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="7">
         <v>0.3</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="7">
         <v>5.2</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="7">
         <v>5.3</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="7">
         <v>1.7</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="7">
         <v>3.6</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="7">
         <v>2.8</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="7">
         <v>3.9</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="7">
         <v>4.7</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="7">
         <v>5.5</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="7">
         <v>1</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="7">
         <v>5.7</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="7">
         <v>3.8</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="7">
         <v>3.7</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="7">
         <v>6.9</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AD5" s="7">
         <v>1.2</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AE5" s="7">
         <v>-0.7</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AF5" s="7">
         <v>-0.9</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AG5" s="7">
         <v>2.4</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH5" s="7">
         <v>4.7</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AI5" s="7">
         <v>1.8</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AJ5" s="7">
         <v>5.9</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AK5" s="7">
         <v>1.6</v>
       </c>
-      <c r="AL5" s="12">
+      <c r="AL5" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AM5" s="12">
+      <c r="AM5" s="7">
         <v>2.9</v>
       </c>
-      <c r="AN5" s="12">
+      <c r="AN5" s="7">
         <v>6.4</v>
       </c>
-      <c r="AO5" s="12">
+      <c r="AO5" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AP5" s="12">
+      <c r="AP5" s="7">
         <v>3.3</v>
       </c>
-      <c r="AQ5" s="12">
+      <c r="AQ5" s="7">
         <v>6.6</v>
       </c>
-      <c r="AR5" s="12">
+      <c r="AR5" s="7">
         <v>3.1</v>
       </c>
-      <c r="AS5" s="12">
+      <c r="AS5" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AT5" s="12">
+      <c r="AT5" s="7">
         <v>5</v>
       </c>
-      <c r="AU5" s="12">
+      <c r="AU5" s="7">
         <v>5.8</v>
       </c>
-      <c r="AV5" s="12">
+      <c r="AV5" s="7">
         <v>2.1</v>
       </c>
-      <c r="AW5" s="12">
+      <c r="AW5" s="7">
         <v>5.7</v>
       </c>
-      <c r="AX5" s="12">
+      <c r="AX5" s="7">
         <v>8.4</v>
       </c>
-      <c r="AY5" s="12">
+      <c r="AY5" s="7">
         <v>2.8</v>
       </c>
-      <c r="AZ5" s="12">
+      <c r="AZ5" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BA5" s="12">
+      <c r="BA5" s="7">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="12">
+        <v>58</v>
+      </c>
+      <c r="B6" s="7">
         <v>3.9</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>5.9</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="7">
         <v>5.2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>6.4</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="7">
         <v>2.4</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <v>5.9</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="7">
         <v>3.6</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="7">
         <v>-2.9</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="7">
         <v>0.7</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="7">
         <v>5.2</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="7">
         <v>3.7</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="7">
         <v>5.8</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="7">
         <v>-0.4</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="7">
         <v>3</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="7">
         <v>-1.6</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="7">
         <v>-0.3</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="7">
         <v>0.8</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="7">
         <v>8.1</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="7">
         <v>3.5</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="7">
         <v>1</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="7">
         <v>2.9</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="7">
         <v>5.2</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="7">
         <v>0.9</v>
       </c>
-      <c r="AC6" s="12">
+      <c r="AC6" s="7">
         <v>2.5</v>
       </c>
-      <c r="AD6" s="12">
+      <c r="AD6" s="7">
         <v>0.4</v>
       </c>
-      <c r="AE6" s="12">
+      <c r="AE6" s="7">
         <v>5.2</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="7">
         <v>7.1</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AG6" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="7">
         <v>3.1</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AI6" s="7">
         <v>7.9</v>
       </c>
-      <c r="AJ6" s="12">
+      <c r="AJ6" s="7">
         <v>2.7</v>
       </c>
-      <c r="AK6" s="12">
+      <c r="AK6" s="7">
         <v>-3.6</v>
       </c>
-      <c r="AL6" s="12">
+      <c r="AL6" s="7">
         <v>1.9</v>
       </c>
-      <c r="AM6" s="12">
+      <c r="AM6" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AN6" s="12">
+      <c r="AN6" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AO6" s="12">
+      <c r="AO6" s="7">
         <v>3.4</v>
       </c>
-      <c r="AP6" s="12">
+      <c r="AP6" s="7">
         <v>-2.8</v>
       </c>
-      <c r="AQ6" s="12">
+      <c r="AQ6" s="7">
         <v>5.4</v>
       </c>
-      <c r="AR6" s="12">
+      <c r="AR6" s="7">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="AS6" s="12">
+      <c r="AS6" s="7">
         <v>2.5</v>
       </c>
-      <c r="AT6" s="12">
+      <c r="AT6" s="7">
         <v>6.3</v>
       </c>
-      <c r="AU6" s="12">
+      <c r="AU6" s="7">
         <v>1.7</v>
       </c>
-      <c r="AV6" s="12">
+      <c r="AV6" s="7">
         <v>4.8</v>
       </c>
-      <c r="AW6" s="12">
+      <c r="AW6" s="7">
         <v>0.4</v>
       </c>
-      <c r="AX6" s="12">
+      <c r="AX6" s="7">
         <v>5.2</v>
       </c>
-      <c r="AY6" s="12">
+      <c r="AY6" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AZ6" s="12">
+      <c r="AZ6" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="BA6" s="12">
+      <c r="BA6" s="7">
         <v>10.6</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="12">
+        <v>59</v>
+      </c>
+      <c r="B7" s="7">
         <v>4.2</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>2.9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="7">
         <v>1.8</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <v>2.1</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="7">
         <v>3.7</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="7">
         <v>7.5</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="7">
         <v>3.9</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="7">
         <v>-3.7</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="7">
         <v>1.6</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <v>2.6</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="7">
         <v>2.6</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="7">
         <v>1.9</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="7">
         <v>8.4</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="7">
         <v>2.8</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="7">
         <v>1</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="7">
         <v>3</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="7">
         <v>2.9</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="7">
         <v>3.1</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="7">
         <v>1.5</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="7">
         <v>4.7</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="7">
         <v>3.5</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="7">
         <v>3.3</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA7" s="7">
         <v>0.4</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AB7" s="7">
         <v>6.4</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AC7" s="7">
         <v>5.5</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AD7" s="7">
         <v>6.2</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AE7" s="7">
         <v>2.9</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AF7" s="7">
         <v>1.3</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AG7" s="7">
         <v>5.8</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="7">
         <v>0.6</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AI7" s="7">
         <v>1</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AJ7" s="7">
         <v>3.4</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AK7" s="7">
         <v>10.9</v>
       </c>
-      <c r="AL7" s="12">
+      <c r="AL7" s="7">
         <v>4</v>
       </c>
-      <c r="AM7" s="12">
+      <c r="AM7" s="7">
         <v>7.7</v>
       </c>
-      <c r="AN7" s="12">
+      <c r="AN7" s="7">
         <v>6.8</v>
       </c>
-      <c r="AO7" s="12">
+      <c r="AO7" s="7">
         <v>3.7</v>
       </c>
-      <c r="AP7" s="12">
+      <c r="AP7" s="7">
         <v>7.4</v>
       </c>
-      <c r="AQ7" s="12">
+      <c r="AQ7" s="7">
         <v>2.5</v>
       </c>
-      <c r="AR7" s="12">
+      <c r="AR7" s="7">
         <v>3</v>
       </c>
-      <c r="AS7" s="12">
+      <c r="AS7" s="7">
         <v>3.7</v>
       </c>
-      <c r="AT7" s="12">
+      <c r="AT7" s="7">
         <v>5.9</v>
       </c>
-      <c r="AU7" s="12">
+      <c r="AU7" s="7">
         <v>4.2</v>
       </c>
-      <c r="AV7" s="12">
+      <c r="AV7" s="7">
         <v>2.1</v>
       </c>
-      <c r="AW7" s="12">
+      <c r="AW7" s="7">
         <v>3.4</v>
       </c>
-      <c r="AX7" s="12">
+      <c r="AX7" s="7">
         <v>7</v>
       </c>
-      <c r="AY7" s="12">
+      <c r="AY7" s="7">
         <v>-0.6</v>
       </c>
-      <c r="AZ7" s="12">
+      <c r="AZ7" s="7">
         <v>2.9</v>
       </c>
-      <c r="BA7" s="12">
+      <c r="BA7" s="7">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="12">
+        <v>60</v>
+      </c>
+      <c r="B8" s="7">
         <v>4.8</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>3.4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="7">
         <v>0.1</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="7">
         <v>7.7</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="7">
         <v>3.9</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="7">
         <v>10.4</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="7">
         <v>5.2</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="7">
         <v>5.6</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="7">
         <v>3.6</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="7">
         <v>3.8</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="7">
         <v>5.6</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="7">
         <v>3.5</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="7">
         <v>-2.5</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="7">
         <v>4</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="7">
         <v>3.2</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="7">
         <v>4.3</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="7">
         <v>5.8</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="7">
         <v>3.2</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="7">
         <v>5.5</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="7">
         <v>3.5</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z8" s="7">
         <v>-0.2</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA8" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AB8" s="7">
         <v>3</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AC8" s="7">
         <v>1</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AD8" s="7">
         <v>1.2</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AE8" s="7">
         <v>6.2</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AF8" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AG8" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AH8" s="7">
         <v>5.7</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AI8" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AJ8" s="7">
         <v>3.5</v>
       </c>
-      <c r="AK8" s="12">
+      <c r="AK8" s="7">
         <v>-3</v>
       </c>
-      <c r="AL8" s="12">
+      <c r="AL8" s="7">
         <v>5.7</v>
       </c>
-      <c r="AM8" s="12">
+      <c r="AM8" s="7">
         <v>0.9</v>
       </c>
-      <c r="AN8" s="12">
+      <c r="AN8" s="7">
         <v>4.3</v>
       </c>
-      <c r="AO8" s="12">
+      <c r="AO8" s="7">
         <v>6.4</v>
       </c>
-      <c r="AP8" s="12">
+      <c r="AP8" s="7">
         <v>3.4</v>
       </c>
-      <c r="AQ8" s="12">
+      <c r="AQ8" s="7">
         <v>2.7</v>
       </c>
-      <c r="AR8" s="12">
+      <c r="AR8" s="7">
         <v>0.4</v>
       </c>
-      <c r="AS8" s="12">
+      <c r="AS8" s="7">
         <v>4.7</v>
       </c>
-      <c r="AT8" s="12">
+      <c r="AT8" s="7">
         <v>6.1</v>
       </c>
-      <c r="AU8" s="12">
+      <c r="AU8" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AV8" s="12">
+      <c r="AV8" s="7">
         <v>3.1</v>
       </c>
-      <c r="AW8" s="12">
+      <c r="AW8" s="7">
         <v>4.8</v>
       </c>
-      <c r="AX8" s="12">
+      <c r="AX8" s="7">
         <v>5.8</v>
       </c>
-      <c r="AY8" s="12">
+      <c r="AY8" s="7">
         <v>6.4</v>
       </c>
-      <c r="AZ8" s="12">
+      <c r="AZ8" s="7">
         <v>6.2</v>
       </c>
-      <c r="BA8" s="12">
+      <c r="BA8" s="7">
         <v>-1.3</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="12">
+        <v>61</v>
+      </c>
+      <c r="B9" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>6.6</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="7">
         <v>6.7</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <v>3.5</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="7">
         <v>7.8</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="7">
         <v>0.3</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="7">
         <v>-1.3</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="7">
         <v>-2.4</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="7">
         <v>6.2</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="7">
         <v>5.4</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="7">
         <v>2.9</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="7">
         <v>9</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="7">
         <v>6.6</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="7">
         <v>4.3</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="7">
         <v>5.8</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="7">
         <v>5.7</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="7">
         <v>2.8</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="7">
         <v>4.7</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="7">
         <v>2.9</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="7">
         <v>4.5</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="7">
         <v>5.6</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA9" s="7">
         <v>2.8</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AB9" s="7">
         <v>2.8</v>
       </c>
-      <c r="AC9" s="12">
+      <c r="AC9" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AD9" s="12">
+      <c r="AD9" s="7">
         <v>3.7</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AE9" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AF9" s="7">
         <v>-1.7</v>
       </c>
-      <c r="AG9" s="12">
+      <c r="AG9" s="7">
         <v>1.2</v>
       </c>
-      <c r="AH9" s="12">
+      <c r="AH9" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AI9" s="12">
+      <c r="AI9" s="7">
         <v>5.8</v>
       </c>
-      <c r="AJ9" s="12">
+      <c r="AJ9" s="7">
         <v>5.5</v>
       </c>
-      <c r="AK9" s="12">
+      <c r="AK9" s="7">
         <v>5.3</v>
       </c>
-      <c r="AL9" s="12">
+      <c r="AL9" s="7">
         <v>3.3</v>
       </c>
-      <c r="AM9" s="12">
+      <c r="AM9" s="7">
         <v>8.4</v>
       </c>
-      <c r="AN9" s="12">
+      <c r="AN9" s="7">
         <v>7.4</v>
       </c>
-      <c r="AO9" s="12">
+      <c r="AO9" s="7">
         <v>3.3</v>
       </c>
-      <c r="AP9" s="12">
+      <c r="AP9" s="7">
         <v>1.8</v>
       </c>
-      <c r="AQ9" s="12">
+      <c r="AQ9" s="7">
         <v>3.1</v>
       </c>
-      <c r="AR9" s="12">
+      <c r="AR9" s="7">
         <v>-1</v>
       </c>
-      <c r="AS9" s="12">
+      <c r="AS9" s="7">
         <v>4.3</v>
       </c>
-      <c r="AT9" s="12">
+      <c r="AT9" s="7">
         <v>7.5</v>
       </c>
-      <c r="AU9" s="12">
+      <c r="AU9" s="7">
         <v>5.9</v>
       </c>
-      <c r="AV9" s="12">
+      <c r="AV9" s="7">
         <v>2.5</v>
       </c>
-      <c r="AW9" s="12">
+      <c r="AW9" s="7">
         <v>3.5</v>
       </c>
-      <c r="AX9" s="12">
+      <c r="AX9" s="7">
         <v>6.9</v>
       </c>
-      <c r="AY9" s="12">
+      <c r="AY9" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AZ9" s="12">
+      <c r="AZ9" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="BA9" s="12">
+      <c r="BA9" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="12">
+        <v>62</v>
+      </c>
+      <c r="B10" s="7">
         <v>4.3</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>3.4</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <v>7.6</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="7">
         <v>3.3</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <v>2.7</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="7">
         <v>3.4</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="7">
         <v>3.9</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="7">
         <v>2.6</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="7">
         <v>6</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="7">
         <v>6.4</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="7">
         <v>2.5</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="7">
         <v>6.1</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="7">
         <v>5.3</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="7">
         <v>3.5</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="7">
         <v>2.4</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="7">
         <v>-0.4</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="7">
         <v>6.8</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="7">
         <v>3.4</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="Z10" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA10" s="7">
         <v>3.7</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AB10" s="7">
         <v>3.1</v>
       </c>
-      <c r="AC10" s="12">
+      <c r="AC10" s="7">
         <v>3.3</v>
       </c>
-      <c r="AD10" s="12">
+      <c r="AD10" s="7">
         <v>2.8</v>
       </c>
-      <c r="AE10" s="12">
+      <c r="AE10" s="7">
         <v>9.5</v>
       </c>
-      <c r="AF10" s="12">
+      <c r="AF10" s="7">
         <v>8.4</v>
       </c>
-      <c r="AG10" s="12">
+      <c r="AG10" s="7">
         <v>5.4</v>
       </c>
-      <c r="AH10" s="12">
+      <c r="AH10" s="7">
         <v>4</v>
       </c>
-      <c r="AI10" s="12">
+      <c r="AI10" s="7">
         <v>3.3</v>
       </c>
-      <c r="AJ10" s="12">
+      <c r="AJ10" s="7">
         <v>3.3</v>
       </c>
-      <c r="AK10" s="12">
+      <c r="AK10" s="7">
         <v>5.7</v>
       </c>
-      <c r="AL10" s="12">
+      <c r="AL10" s="7">
         <v>2.7</v>
       </c>
-      <c r="AM10" s="12">
+      <c r="AM10" s="7">
         <v>7.5</v>
       </c>
-      <c r="AN10" s="12">
+      <c r="AN10" s="7">
         <v>4.2</v>
       </c>
-      <c r="AO10" s="12">
+      <c r="AO10" s="7">
         <v>3.2</v>
       </c>
-      <c r="AP10" s="12">
+      <c r="AP10" s="7">
         <v>3.6</v>
       </c>
-      <c r="AQ10" s="12">
+      <c r="AQ10" s="7">
         <v>3</v>
       </c>
-      <c r="AR10" s="12">
+      <c r="AR10" s="7">
         <v>7.6</v>
       </c>
-      <c r="AS10" s="12">
+      <c r="AS10" s="7">
         <v>1.9</v>
       </c>
-      <c r="AT10" s="12">
+      <c r="AT10" s="7">
         <v>7.1</v>
       </c>
-      <c r="AU10" s="12">
+      <c r="AU10" s="7">
         <v>8.5</v>
       </c>
-      <c r="AV10" s="12">
+      <c r="AV10" s="7">
         <v>3.1</v>
       </c>
-      <c r="AW10" s="12">
+      <c r="AW10" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX10" s="12">
+      <c r="AX10" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AY10" s="12">
+      <c r="AY10" s="7">
         <v>2.7</v>
       </c>
-      <c r="AZ10" s="12">
+      <c r="AZ10" s="7">
         <v>6.6</v>
       </c>
-      <c r="BA10" s="12">
+      <c r="BA10" s="7">
         <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="12">
+        <v>63</v>
+      </c>
+      <c r="B11" s="7">
         <v>7.6</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>5.7</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="7">
         <v>7</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="7">
         <v>5.4</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="7">
         <v>5.8</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="7">
         <v>9.5</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="7">
         <v>-0.6</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="7">
         <v>5.2</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="7">
         <v>3.2</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="7">
         <v>4.5</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="7">
         <v>6.1</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="7">
         <v>9.1</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="7">
         <v>3.9</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="7">
         <v>10.9</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="7">
         <v>9.4</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="7">
         <v>8.4</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="7">
         <v>5.9</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W11" s="7">
         <v>6.4</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="7">
         <v>5.2</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="7">
         <v>6.5</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="7">
         <v>11.3</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA11" s="7">
         <v>6.2</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AB11" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AC11" s="12">
+      <c r="AC11" s="7">
         <v>7.1</v>
       </c>
-      <c r="AD11" s="12">
+      <c r="AD11" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE11" s="7">
         <v>5.2</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF11" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AG11" s="7">
         <v>5.9</v>
       </c>
-      <c r="AH11" s="12">
+      <c r="AH11" s="7">
         <v>8.4</v>
       </c>
-      <c r="AI11" s="12">
+      <c r="AI11" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AJ11" s="12">
+      <c r="AJ11" s="7">
         <v>11.9</v>
       </c>
-      <c r="AK11" s="12">
+      <c r="AK11" s="7">
         <v>14.1</v>
       </c>
-      <c r="AL11" s="12">
+      <c r="AL11" s="7">
         <v>7.4</v>
       </c>
-      <c r="AM11" s="12">
+      <c r="AM11" s="7">
         <v>11.1</v>
       </c>
-      <c r="AN11" s="12">
+      <c r="AN11" s="7">
         <v>6.5</v>
       </c>
-      <c r="AO11" s="12">
+      <c r="AO11" s="7">
         <v>7.9</v>
       </c>
-      <c r="AP11" s="12">
+      <c r="AP11" s="7">
         <v>6.3</v>
       </c>
-      <c r="AQ11" s="12">
+      <c r="AQ11" s="7">
         <v>5.9</v>
       </c>
-      <c r="AR11" s="12">
+      <c r="AR11" s="7">
         <v>6</v>
       </c>
-      <c r="AS11" s="12">
+      <c r="AS11" s="7">
         <v>10.4</v>
       </c>
-      <c r="AT11" s="12">
+      <c r="AT11" s="7">
         <v>9.9</v>
       </c>
-      <c r="AU11" s="12">
+      <c r="AU11" s="7">
         <v>7.6</v>
       </c>
-      <c r="AV11" s="12">
+      <c r="AV11" s="7">
         <v>7</v>
       </c>
-      <c r="AW11" s="12">
+      <c r="AW11" s="7">
         <v>5.9</v>
       </c>
-      <c r="AX11" s="12">
+      <c r="AX11" s="7">
         <v>10.5</v>
       </c>
-      <c r="AY11" s="12">
+      <c r="AY11" s="7">
         <v>11.4</v>
       </c>
-      <c r="AZ11" s="12">
+      <c r="AZ11" s="7">
         <v>5.3</v>
       </c>
-      <c r="BA11" s="12">
+      <c r="BA11" s="7">
         <v>7.8</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="12">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>3.5</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="7">
         <v>6.9</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="7">
         <v>1.8</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <v>2.6</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="7">
         <v>6.2</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="7">
         <v>10.9</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="7">
         <v>11.1</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="7">
         <v>8.1</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="7">
         <v>9</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="7">
         <v>8.9</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="7">
         <v>3.5</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="7">
         <v>6.6</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="7">
         <v>3.5</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="7">
         <v>0.6</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="7">
         <v>2.4</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="7">
         <v>2.4</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="7">
         <v>4.5</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W12" s="7">
         <v>0.8</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X12" s="7">
         <v>3.4</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12" s="7">
         <v>4.7</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z12" s="7">
         <v>3.9</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA12" s="7">
         <v>3.6</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AB12" s="7">
         <v>3</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AC12" s="7">
         <v>3.1</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AD12" s="7">
         <v>-0.4</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE12" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF12" s="7">
         <v>5.7</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AG12" s="7">
         <v>3.4</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH12" s="7">
         <v>8.6</v>
       </c>
-      <c r="AI12" s="12">
+      <c r="AI12" s="7">
         <v>4.8</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AJ12" s="7">
         <v>1.7</v>
       </c>
-      <c r="AK12" s="12">
+      <c r="AK12" s="7">
         <v>5.3</v>
       </c>
-      <c r="AL12" s="12">
+      <c r="AL12" s="7">
         <v>7</v>
       </c>
-      <c r="AM12" s="12">
+      <c r="AM12" s="7">
         <v>3.9</v>
       </c>
-      <c r="AN12" s="12">
+      <c r="AN12" s="7">
         <v>5.9</v>
       </c>
-      <c r="AO12" s="12">
+      <c r="AO12" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AP12" s="12">
+      <c r="AP12" s="7">
         <v>-4</v>
       </c>
-      <c r="AQ12" s="12">
+      <c r="AQ12" s="7">
         <v>4.8</v>
       </c>
-      <c r="AR12" s="12">
+      <c r="AR12" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AS12" s="12">
+      <c r="AS12" s="7">
         <v>6.6</v>
       </c>
-      <c r="AT12" s="12">
+      <c r="AT12" s="7">
         <v>6.3</v>
       </c>
-      <c r="AU12" s="12">
+      <c r="AU12" s="7">
         <v>6.7</v>
       </c>
-      <c r="AV12" s="12">
+      <c r="AV12" s="7">
         <v>0.4</v>
       </c>
-      <c r="AW12" s="12">
+      <c r="AW12" s="7">
         <v>6.3</v>
       </c>
-      <c r="AX12" s="12">
+      <c r="AX12" s="7">
         <v>6.8</v>
       </c>
-      <c r="AY12" s="12">
+      <c r="AY12" s="7">
         <v>12.5</v>
       </c>
-      <c r="AZ12" s="12">
+      <c r="AZ12" s="7">
         <v>3.8</v>
       </c>
-      <c r="BA12" s="12">
+      <c r="BA12" s="7">
         <v>6.6</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="12">
+        <v>65</v>
+      </c>
+      <c r="B13" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="7">
         <v>1.6</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>5.6</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>4.2</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="7">
         <v>4.3</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="7">
         <v>4</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="7">
         <v>2.4</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="7">
         <v>4.5</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="7">
         <v>4.2</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="7">
         <v>5.7</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="7">
         <v>3.8</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="7">
         <v>3.7</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="7">
         <v>3.1</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="7">
         <v>3.5</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="7">
         <v>4.3</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="7">
         <v>2.9</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="7">
         <v>3.4</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="7">
         <v>3.7</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="7">
         <v>4</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="Z13" s="7">
         <v>3.5</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13" s="7">
         <v>3.3</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AB13" s="7">
         <v>4.3</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AC13" s="7">
         <v>3</v>
       </c>
-      <c r="AD13" s="12">
+      <c r="AD13" s="7">
         <v>5.5</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AE13" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="7">
         <v>4</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG13" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="7">
         <v>2.6</v>
       </c>
-      <c r="AI13" s="12">
+      <c r="AI13" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AJ13" s="12">
+      <c r="AJ13" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AK13" s="12">
+      <c r="AK13" s="7">
         <v>1.4</v>
       </c>
-      <c r="AL13" s="12">
+      <c r="AL13" s="7">
         <v>3.4</v>
       </c>
-      <c r="AM13" s="12">
+      <c r="AM13" s="7">
         <v>2.7</v>
       </c>
-      <c r="AN13" s="12">
+      <c r="AN13" s="7">
         <v>4</v>
       </c>
-      <c r="AO13" s="12">
+      <c r="AO13" s="7">
         <v>4.2</v>
       </c>
-      <c r="AP13" s="12">
+      <c r="AP13" s="7">
         <v>3.6</v>
       </c>
-      <c r="AQ13" s="12">
+      <c r="AQ13" s="7">
         <v>4.3</v>
       </c>
-      <c r="AR13" s="12">
+      <c r="AR13" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AS13" s="12">
+      <c r="AS13" s="7">
         <v>4.2</v>
       </c>
-      <c r="AT13" s="12">
+      <c r="AT13" s="7">
         <v>5.8</v>
       </c>
-      <c r="AU13" s="12">
+      <c r="AU13" s="7">
         <v>3.9</v>
       </c>
-      <c r="AV13" s="12">
+      <c r="AV13" s="7">
         <v>4.3</v>
       </c>
-      <c r="AW13" s="12">
+      <c r="AW13" s="7">
         <v>3.9</v>
       </c>
-      <c r="AX13" s="12">
+      <c r="AX13" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AY13" s="12">
+      <c r="AY13" s="7">
         <v>0.2</v>
       </c>
-      <c r="AZ13" s="12">
+      <c r="AZ13" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BA13" s="12">
+      <c r="BA13" s="7">
         <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="12">
+        <v>66</v>
+      </c>
+      <c r="B14" s="7">
         <v>3.8</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <v>3.6</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="7">
         <v>-1.9</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>5.4</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>3.1</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <v>4.5</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="7">
         <v>4</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="7">
         <v>3.4</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="7">
         <v>2.9</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="7">
         <v>5.2</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="7">
         <v>3.8</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="7">
         <v>3.3</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="7">
         <v>4</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="7">
         <v>3.2</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="7">
         <v>1.5</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="7">
         <v>4.2</v>
       </c>
-      <c r="W14" s="12">
+      <c r="W14" s="7">
         <v>4</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X14" s="7">
         <v>4.3</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14" s="7">
         <v>4.3</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="Z14" s="7">
         <v>3.4</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14" s="7">
         <v>2.9</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AB14" s="7">
         <v>3.4</v>
       </c>
-      <c r="AC14" s="12">
+      <c r="AC14" s="7">
         <v>3.3</v>
       </c>
-      <c r="AD14" s="12">
+      <c r="AD14" s="7">
         <v>4</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AE14" s="7">
         <v>5.8</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AG14" s="12">
+      <c r="AG14" s="7">
         <v>3.3</v>
       </c>
-      <c r="AH14" s="12">
+      <c r="AH14" s="7">
         <v>1.8</v>
       </c>
-      <c r="AI14" s="12">
+      <c r="AI14" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AJ14" s="12">
+      <c r="AJ14" s="7">
         <v>3.2</v>
       </c>
-      <c r="AK14" s="12">
+      <c r="AK14" s="7">
         <v>-0.4</v>
       </c>
-      <c r="AL14" s="12">
+      <c r="AL14" s="7">
         <v>3.3</v>
       </c>
-      <c r="AM14" s="12">
+      <c r="AM14" s="7">
         <v>-1.4</v>
       </c>
-      <c r="AN14" s="12">
+      <c r="AN14" s="7">
         <v>5.2</v>
       </c>
-      <c r="AO14" s="12">
+      <c r="AO14" s="7">
         <v>3</v>
       </c>
-      <c r="AP14" s="12">
+      <c r="AP14" s="7">
         <v>3.9</v>
       </c>
-      <c r="AQ14" s="12">
+      <c r="AQ14" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AR14" s="12">
+      <c r="AR14" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AS14" s="12">
+      <c r="AS14" s="7">
         <v>3.7</v>
       </c>
-      <c r="AT14" s="12">
+      <c r="AT14" s="7">
         <v>2.1</v>
       </c>
-      <c r="AU14" s="12">
+      <c r="AU14" s="7">
         <v>5.2</v>
       </c>
-      <c r="AV14" s="12">
+      <c r="AV14" s="7">
         <v>4.3</v>
       </c>
-      <c r="AW14" s="12">
+      <c r="AW14" s="7">
         <v>4.2</v>
       </c>
-      <c r="AX14" s="12">
+      <c r="AX14" s="7">
         <v>5.2</v>
       </c>
-      <c r="AY14" s="12">
+      <c r="AY14" s="7">
         <v>1.6</v>
       </c>
-      <c r="AZ14" s="12">
+      <c r="AZ14" s="7">
         <v>3.5</v>
       </c>
-      <c r="BA14" s="12">
+      <c r="BA14" s="7">
         <v>-4.5999999999999996</v>
       </c>
     </row>
